--- a/ComparedResults/DIV3_GOLINK_Tables.xlsx
+++ b/ComparedResults/DIV3_GOLINK_Tables.xlsx
@@ -37,10 +37,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>728.22</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>737.08</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>728.17</v>
-      </c>
       <c r="D2" s="4" t="n">
-        <v>8.92</v>
+        <v>-8.859999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>282.79</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>314.17</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>316.09</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>-1.91</v>
+      <c r="D3" s="4" t="n">
+        <v>-31.38</v>
       </c>
     </row>
     <row r="4">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>1622.13</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>1535.35</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>1564.79</v>
-      </c>
       <c r="D4" s="5" t="n">
-        <v>-29.44</v>
+        <v>86.78</v>
       </c>
     </row>
     <row r="5">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
+        <v>1013.78</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>1030.17</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>1014.29</v>
-      </c>
       <c r="D5" s="4" t="n">
-        <v>15.89</v>
+        <v>-16.39</v>
       </c>
     </row>
     <row r="6">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>5.14</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>5.14</v>
+      <c r="D6" s="5" t="n">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -636,10 +636,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.02</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>0.97</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>-0.02</v>
+      <c r="D3" s="4" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="4">
@@ -665,13 +665,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0.93</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>0.95</v>
-      </c>
       <c r="D4" s="5" t="n">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -697,12 +697,12 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -760,13 +760,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>24759.53</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>25060.85</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>23637.82</v>
-      </c>
       <c r="D2" s="4" t="n">
-        <v>1423.04</v>
+        <v>-301.33</v>
       </c>
     </row>
     <row r="3">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>7691.86</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>9663.77</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>10746.94</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>-1083.17</v>
+      <c r="D3" s="4" t="n">
+        <v>-1971.91</v>
       </c>
     </row>
     <row r="4">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>52425.66</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>43088.79</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>45287.12</v>
-      </c>
       <c r="D4" s="5" t="n">
-        <v>-2198.33</v>
+        <v>9336.860000000001</v>
       </c>
     </row>
     <row r="5">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
+        <v>34468.5</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>35025.9</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>34485.73</v>
-      </c>
       <c r="D5" s="4" t="n">
-        <v>540.1799999999999</v>
+        <v>-557.4</v>
       </c>
     </row>
     <row r="6">
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
+        <v>237.49</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>139.69</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>139.69</v>
+      <c r="D6" s="5" t="n">
+        <v>97.81</v>
       </c>
     </row>
   </sheetData>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>950</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>1450</v>
-      </c>
       <c r="D2" s="5" t="n">
-        <v>-500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>200</v>
-      </c>
       <c r="D3" s="4" t="n">
-        <v>50</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="4">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
+      <c r="D4" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -938,10 +938,10 @@
         <v>350</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-150</v>
+        <v>350</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
+      <c r="D6" s="5" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,24 +1010,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>AMIR KHAN</t>
+          <t>ALI MOHAMED</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>ALI MOHAMED</t>
+          <t>ALEX THOMAS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>ASHLEY CHATMAN</t>
+          <t>AMIR KHAN</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>AMIR KHAN</t>
+          <t>ALI MOHAMED</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BENNY YOUNG</t>
+          <t>AMIR KHAN</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BRYANT MATTHEWS</t>
+          <t>BENNY YOUNG</t>
         </is>
       </c>
     </row>
@@ -1063,134 +1063,134 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CARL HUDDLESTON</t>
+          <t>BRYANT MATTHEWS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>CARLO VALENTIN</t>
+          <t>CHADWICK MILLER</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CHADWICK MILLER</t>
+          <t>CARL HUDDLESTON</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
+          <t>CHARLES DEWITT</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
           <t>CHADWICK MILLER</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>CHARLES DEWITT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
+          <t>CHRIS CAROLEO</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
           <t>CHARLES DEWITT</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>CHRIS CAROLEO</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
+          <t>CLOIS TAYLOR</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
           <t>CHRIS CAROLEO</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>CLOIS TAYLOR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
+          <t>COLYNN TENNYSON-NIXON</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>CLOIS TAYLOR</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>COLYNN TENNYSON-NIXON</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
+          <t>DAVID OAKES</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>COLYNN TENNYSON-NIXON</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>DAVID OAKES</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
+          <t>DAZANDRA RANSOM</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
           <t>DAVID OAKES</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>DAZANDRA RANSOM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
+          <t>DEDRICC WILSON</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
           <t>DAZANDRA RANSOM</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>DEDRICC WILSON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
+          <t>DEVONTE JOHNSON</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
           <t>DEDRICC WILSON</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>DEVONTE JOHNSON</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
+          <t>DIONNE SANDERS</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
           <t>DEVONTE JOHNSON</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>DIONNE SANDERS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>DIONNE SANDERS</t>
+          <t>DYTRAVIAN MALLARD</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1202,7 +1202,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>DYTRAVIAN MALLARD</t>
+          <t>ELVA GARCIA</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>ELVA GARCIA</t>
+          <t>FITZGERALD MOORE</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1226,7 +1226,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>FITZGERALD MOORE</t>
+          <t>GARY NARANJO</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -1238,7 +1238,7 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>GARY NARANJO</t>
+          <t>HENOK BEHRE</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>HANY SHEBL</t>
+          <t>JABARI JOHNSON</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -1262,7 +1262,7 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>HENOK BEHRE</t>
+          <t>JACQULYN JACKSON</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1274,7 +1274,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>JABARI JOHNSON</t>
+          <t>JAMES KING</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
@@ -1286,96 +1286,96 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>JACQULYN JACKSON</t>
+          <t>JAMES PHILLIPS</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>JAMES PHILLIPS</t>
+          <t>JAMES WILLIAMS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>JAMES KING</t>
+          <t>JAMES WILLIAMS</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>JAMES WILLIAMS</t>
+          <t>JESSICA ANDRADE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>JAMES WILLIAMS</t>
+          <t>JESSICA ANDRADE</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>JESSICA ANDRADE</t>
+          <t>JOSHUA CHERRY</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>JESSICA ANDRADE</t>
+          <t>JOSHUA CHERRY</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>JOSHUA CHERRY</t>
+          <t>JOY JENKINS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>JOSHUA CHERRY</t>
+          <t>JOY JENKINS</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>JOY JENKINS</t>
+          <t>KARINA JIMINEZ</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>JOY JENKINS</t>
+          <t>KALIN HUMPHREY</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>KALIN HUMPHREY</t>
+          <t>KEITH HOLMES</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>KALIN HUMPHREY</t>
+          <t>KARINA JIMINEZ</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>KARINA JIMINEZ</t>
+          <t>KENDRICK GASSAWAY</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>KARINA JIMINEZ</t>
+          <t>KEITH HOLMES</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>KEITH HOLMES</t>
+          <t>KENNETH SMITH</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>KENDRICK GASSAWAY</t>
+          <t>KEVIN OWEN</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>KENNETH SMITH</t>
+          <t>KEVIN WHITE</t>
         </is>
       </c>
     </row>
@@ -1411,38 +1411,38 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>KEVIN OWEN</t>
+          <t>KEYLON BOYD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
+          <t>KEVIN WHITE</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
           <t>LASONIA SADDLER</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>KEVIN WHITE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>LINDA HOLLAND</t>
+          <t>LASONIA SADDLER</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>LASONIA SADDLER</t>
+          <t>LEON KING</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>MANNY GOMEZ</t>
+          <t>LINDA HOLLAND</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>MARK KABAH</t>
+          <t>LUBRANDON ENGLISH</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
@@ -1466,7 +1466,7 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>MAURIDI SANGANIRA (BIG STAR)</t>
+          <t>MARK KABAH</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>MICHAEL POPE</t>
+          <t>MAURIDI SANGANIRA (BIG STAR)</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
@@ -1490,7 +1490,7 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>MICHAEL SMITH</t>
+          <t>MICHAEL POPE</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
@@ -1502,72 +1502,72 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
+          <t>MICHAEL SMITH</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
           <t>MIRO PASKALEV</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>MICHAEL SMITH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
+          <t>MIRO PASKALEV</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
           <t>MORSHED CHOWDHURY</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>MIRO PASKALEV</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
+          <t>MORSHED CHOWDHURY</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
           <t>NATALIE HANEY</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>MORSHED CHOWDHURY</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
+          <t>NATALIE HANEY</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
           <t>NATASHA TITTLE</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>NATALIE HANEY</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
+          <t>NATASHA TITTLE</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
           <t>NEKEDRA JACOBS</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>NATASHA TITTLE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
+          <t>NEKEDRA JACOBS</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
           <t>PHILLIP SAYLOR</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>NEKEDRA JACOBS</t>
         </is>
       </c>
     </row>
@@ -1610,84 +1610,84 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
+          <t>SHURONDA MOSLEY</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
           <t>RU-CHRISTA MCHENRY</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>SHURONDA MOSLEY</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
+          <t>TAMMY SPENCER</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
           <t>SHURONDA MOSLEY</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>TAMMY SPENCER</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
+          <t>TMYRA FRANCIS</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
           <t>TAMMY SPENCER</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>TMYRA FRANCIS</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>TMYRA FRANCIS</t>
+          <t>TONYA SMITH</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>TONYA SMITH</t>
+          <t>TANIA HOURRUTINIER</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>TONYA SMITH</t>
+          <t>ULYSSES GRIFFIN</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ULYSSES GRIFFIN</t>
+          <t>TMYRA FRANCIS</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>ULYSSES GRIFFIN</t>
+          <t>URECHA DUNN</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>URECHA DUNN</t>
+          <t>TONYA SMITH</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>URECHA DUNN</t>
+          <t>VALECIA BROOKS</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>VALECIA BROOKS</t>
+          <t>ULYSSES GRIFFIN</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>WAYNE LEE</t>
+          <t>URECHA DUNN</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>WILLIE WILLIAMS</t>
+          <t>VALECIA BROOKS</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>YURANA HARRIS</t>
+          <t>WAYNE LEE</t>
         </is>
       </c>
     </row>
@@ -1734,6 +1734,14 @@
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>YURANA HARRIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr"/>
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>ZAINAB MPIANA</t>
         </is>
